--- a/public/assets/sample-guard-roster/guard_roster.xlsx
+++ b/public/assets/sample-guard-roster/guard_roster.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>Guard Id</t>
   </si>
@@ -210,19 +210,25 @@
   </si>
   <si>
     <t>4:37PM</t>
+  </si>
+  <si>
+    <t>G000131</t>
+  </si>
+  <si>
+    <t>G000132</t>
+  </si>
+  <si>
+    <t>ME001</t>
+  </si>
+  <si>
+    <t>ME002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,346 +236,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -577,251 +253,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -833,89 +267,158 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -926,7 +429,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -954,149 +457,32 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1359,19 +745,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3:AE4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
@@ -1440,7 +826,7 @@
       </c>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2" spans="4:31">
+    <row r="2" spans="1:31">
       <c r="D2" t="s">
         <v>17</v>
       </c>
@@ -1527,14 +913,14 @@
       </c>
     </row>
     <row r="3" spans="1:31">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>61</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
@@ -1622,14 +1008,14 @@
       </c>
     </row>
     <row r="4" spans="1:31">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>62</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -1718,22 +1104,21 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>